--- a/data/dataImport.xlsx
+++ b/data/dataImport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sieni\IdeaProjects\medical-system-backend\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sieni\Desktop\medical-system-backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -556,7 +556,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -871,8 +871,8 @@
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="A1:DD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1343,7 +1343,7 @@
         <v>42709</v>
       </c>
       <c r="H3" s="4">
-        <v>4</v>
+        <v>1411</v>
       </c>
       <c r="I3" s="4">
         <v>1</v>

--- a/data/dataImport.xlsx
+++ b/data/dataImport.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sieni\Desktop\medical-system-backend\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sieni\IdeaProjects\medical-system-backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="7140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Otwarte" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="148">
   <si>
     <t>Dane osobowe</t>
   </si>
@@ -466,6 +466,9 @@
   </si>
   <si>
     <t>brak Echo, spr KKCz</t>
+  </si>
+  <si>
+    <t>dfdfdf</t>
   </si>
 </sst>
 </file>
@@ -871,7 +874,7 @@
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="A1:DD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -4489,8 +4492,8 @@
   <sheetPr codeName="Arkusz2"/>
   <dimension ref="A1:CX12"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4925,6 +4928,9 @@
       <c r="A3">
         <v>376</v>
       </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
       <c r="D3" t="s">
         <v>117</v>
       </c>
